--- a/data/before.xlsx
+++ b/data/before.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoba10\OneDrive\Desktop\reto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94468aa6da851130/Desktop/reto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CCFAF2E-6663-4988-AACF-A9214D4ABAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{3CCFAF2E-6663-4988-AACF-A9214D4ABAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39A1A9A5-283D-4A12-A5B8-86E6D0518AB9}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="2745" windowWidth="14475" windowHeight="14520" xr2:uid="{AC69CF91-0B0A-4C72-8E2D-805D25D8DA4C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="6360" windowHeight="14520" xr2:uid="{AC69CF91-0B0A-4C72-8E2D-805D25D8DA4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>ルブニールで樹熱が流行</t>
   </si>
   <si>
-    <t>ノーランドとカルガラ</t>
-  </si>
-  <si>
     <t>ジェルマ66日だけの栄華</t>
   </si>
   <si>
@@ -589,6 +586,13 @@
   </si>
   <si>
     <t>シャンクスが四皇になる</t>
+  </si>
+  <si>
+    <t>ノーランドとカルガラの出会い</t>
+    <rPh sb="11" eb="13">
+      <t>デア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -955,7 +959,7 @@
   <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1021,15 +1025,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="B8">
-        <v>400</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>300</v>
@@ -1037,7 +1041,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>210</v>
@@ -1045,7 +1049,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>202</v>
@@ -1053,7 +1057,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -1061,7 +1065,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -1069,7 +1073,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -1077,7 +1081,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>102</v>
@@ -1085,7 +1089,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -1093,7 +1097,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>82</v>
@@ -1101,7 +1105,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>67</v>
@@ -1109,7 +1113,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>66</v>
@@ -1117,7 +1121,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>63</v>
@@ -1125,7 +1129,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>62</v>
@@ -1133,7 +1137,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>57</v>
@@ -1141,7 +1145,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>56</v>
@@ -1149,7 +1153,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>55</v>
@@ -1157,7 +1161,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>55</v>
@@ -1165,7 +1169,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>53</v>
@@ -1173,7 +1177,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>53</v>
@@ -1181,7 +1185,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>52</v>
@@ -1189,7 +1193,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>52</v>
@@ -1197,7 +1201,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>52</v>
@@ -1205,7 +1209,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>51</v>
@@ -1213,7 +1217,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>50</v>
@@ -1221,7 +1225,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>50</v>
@@ -1229,7 +1233,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>49</v>
@@ -1237,7 +1241,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>47</v>
@@ -1245,7 +1249,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>46</v>
@@ -1253,7 +1257,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>45</v>
@@ -1261,7 +1265,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>45</v>
@@ -1269,7 +1273,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>44</v>
@@ -1277,7 +1281,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>44</v>
@@ -1285,7 +1289,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>44</v>
@@ -1293,7 +1297,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>43</v>
@@ -1301,7 +1305,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>43</v>
@@ -1309,7 +1313,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>42</v>
@@ -1317,7 +1321,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>42</v>
@@ -1325,7 +1329,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>42</v>
@@ -1333,7 +1337,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>41</v>
@@ -1341,7 +1345,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>41</v>
@@ -1349,7 +1353,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>40</v>
@@ -1357,7 +1361,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>40</v>
@@ -1365,7 +1369,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>39</v>
@@ -1373,7 +1377,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>39</v>
@@ -1381,7 +1385,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>39</v>
@@ -1389,7 +1393,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>38</v>
@@ -1397,7 +1401,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>38</v>
@@ -1405,7 +1409,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>37</v>
@@ -1413,7 +1417,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>36</v>
@@ -1421,7 +1425,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>36</v>
@@ -1429,7 +1433,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>34</v>
@@ -1437,7 +1441,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>33</v>
@@ -1445,7 +1449,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>33</v>
@@ -1453,7 +1457,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>33</v>
@@ -1461,7 +1465,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>32</v>
@@ -1469,7 +1473,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>32</v>
@@ -1477,7 +1481,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>31</v>
@@ -1485,7 +1489,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>31</v>
@@ -1493,7 +1497,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>30</v>
@@ -1501,7 +1505,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>30</v>
@@ -1509,7 +1513,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>30</v>
@@ -1517,7 +1521,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>30</v>
@@ -1525,7 +1529,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>30</v>
@@ -1533,7 +1537,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>29</v>
@@ -1541,7 +1545,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>29</v>
@@ -1549,7 +1553,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>28</v>
@@ -1557,7 +1561,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>28</v>
@@ -1565,7 +1569,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>28</v>
@@ -1573,7 +1577,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>28</v>
@@ -1581,7 +1585,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>27</v>
@@ -1589,7 +1593,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>26</v>
@@ -1597,7 +1601,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>26</v>
@@ -1605,7 +1609,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>25</v>
@@ -1613,7 +1617,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>26</v>
@@ -1621,7 +1625,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>26</v>
@@ -1629,7 +1633,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>26</v>
@@ -1637,7 +1641,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>26</v>
@@ -1645,7 +1649,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>25</v>
@@ -1653,7 +1657,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>26</v>
@@ -1661,7 +1665,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>26</v>
@@ -1669,7 +1673,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>25</v>
@@ -1677,7 +1681,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>25</v>
@@ -1685,7 +1689,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>25</v>
@@ -1693,7 +1697,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>25</v>
@@ -1701,7 +1705,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>25</v>
@@ -1709,7 +1713,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>24</v>
@@ -1717,7 +1721,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>24</v>
@@ -1725,7 +1729,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>23</v>
@@ -1733,7 +1737,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>22</v>
@@ -1741,7 +1745,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>22</v>
@@ -1749,7 +1753,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>22</v>
@@ -1757,7 +1761,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>20</v>
@@ -1765,7 +1769,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>22</v>
@@ -1773,7 +1777,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>20</v>
@@ -1781,7 +1785,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>20</v>
@@ -1789,7 +1793,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>19</v>
@@ -1797,7 +1801,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>19</v>
@@ -1805,7 +1809,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>19</v>
@@ -1813,7 +1817,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>18</v>
@@ -1821,7 +1825,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>17</v>
@@ -1829,7 +1833,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>17</v>
@@ -1837,7 +1841,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>17</v>
@@ -1845,7 +1849,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>17</v>
@@ -1853,7 +1857,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>17</v>
@@ -1861,7 +1865,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>16</v>
@@ -1869,7 +1873,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>16</v>
@@ -1877,7 +1881,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>16</v>
@@ -1885,7 +1889,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>15</v>
@@ -1893,7 +1897,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>15</v>
@@ -1901,7 +1905,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>15</v>
@@ -1909,7 +1913,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>15</v>
@@ -1917,7 +1921,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>14</v>
@@ -1925,7 +1929,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>14</v>
@@ -1933,7 +1937,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>14</v>
@@ -1941,7 +1945,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>14</v>
@@ -1949,7 +1953,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>13</v>
@@ -1957,7 +1961,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>13</v>
@@ -1965,7 +1969,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>13</v>
@@ -1973,7 +1977,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>13</v>
@@ -1981,7 +1985,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>13</v>
@@ -1989,7 +1993,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>13</v>
@@ -1997,7 +2001,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>13</v>
@@ -2005,7 +2009,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>13</v>
@@ -2013,7 +2017,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>12</v>
@@ -2021,7 +2025,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>12</v>
@@ -2029,7 +2033,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>12</v>
@@ -2037,7 +2041,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>12</v>
@@ -2045,7 +2049,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>12</v>
@@ -2053,7 +2057,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>12</v>
@@ -2061,7 +2065,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>12</v>
@@ -2069,7 +2073,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>12</v>
@@ -2077,7 +2081,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>12</v>
@@ -2085,7 +2089,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>12</v>
@@ -2093,7 +2097,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>11</v>
@@ -2101,7 +2105,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>11</v>
@@ -2109,7 +2113,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>11</v>
@@ -2117,7 +2121,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>11</v>
@@ -2125,7 +2129,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>10</v>
@@ -2133,7 +2137,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>10</v>
@@ -2141,7 +2145,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>10</v>
@@ -2149,7 +2153,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>10</v>
@@ -2157,7 +2161,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>10</v>
@@ -2165,7 +2169,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>10</v>
@@ -2173,7 +2177,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>10</v>
@@ -2181,7 +2185,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>10</v>
@@ -2189,7 +2193,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>10</v>
@@ -2197,7 +2201,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>10</v>
@@ -2205,7 +2209,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>10</v>
@@ -2213,7 +2217,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>9</v>
@@ -2221,7 +2225,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>9</v>
@@ -2229,7 +2233,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>8</v>
@@ -2237,7 +2241,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>8</v>
@@ -2245,7 +2249,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>7</v>
@@ -2253,7 +2257,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162">
         <v>7</v>
@@ -2261,7 +2265,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163">
         <v>7</v>
@@ -2269,7 +2273,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164">
         <v>7</v>
@@ -2277,7 +2281,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>7</v>
@@ -2285,7 +2289,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>7</v>
@@ -2293,7 +2297,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167">
         <v>7</v>
@@ -2301,7 +2305,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168">
         <v>6</v>
@@ -2309,7 +2313,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169">
         <v>6</v>
@@ -2317,7 +2321,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170">
         <v>6</v>
@@ -2325,7 +2329,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171">
         <v>5</v>
@@ -2333,7 +2337,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172">
         <v>5</v>
@@ -2341,7 +2345,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173">
         <v>5</v>
@@ -2349,7 +2353,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174">
         <v>5</v>
@@ -2357,7 +2361,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175">
         <v>5</v>
@@ -2365,7 +2369,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176">
         <v>5</v>
@@ -2373,7 +2377,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -2381,7 +2385,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178">
         <v>4</v>
@@ -2389,7 +2393,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -2397,7 +2401,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180">
         <v>4</v>
@@ -2405,7 +2409,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181">
         <v>3</v>
@@ -2413,7 +2417,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182">
         <v>3</v>
@@ -2421,7 +2425,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -2429,7 +2433,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -2437,7 +2441,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185">
         <v>6</v>
